--- a/src/test/resources/excelIOUtil/sample.xlsx
+++ b/src/test/resources/excelIOUtil/sample.xlsx
@@ -41,19 +41,24 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -95,17 +100,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -136,18 +138,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="256" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -157,9 +156,6 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -168,9 +164,6 @@
       <c r="B2" s="2">
         <v>27</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="2">
@@ -179,9 +172,6 @@
       <c r="B3" s="2">
         <v>60</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -190,9 +180,6 @@
       <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -201,9 +188,6 @@
       <c r="B5" s="2">
         <v>80</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -212,37 +196,6 @@
       <c r="B6" s="2">
         <v>85</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
